--- a/artfynd/A 14713-2020.xlsx
+++ b/artfynd/A 14713-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84711</v>
+        <v>84712</v>
       </c>
       <c r="B2" t="n">
         <v>97511</v>
@@ -725,7 +725,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>jättetuja-beståndet, Öl</t>
+          <t>Skäftekärr, Tujabeståndet, Öl</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -735,7 +735,7 @@
         <v>6346122.04587671</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -757,6 +757,11 @@
           <t>Böda</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Hö-Bor-1880</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>2008-08-08</t>
@@ -785,24 +790,23 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>blandskog</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Thomas Gunnarsson</t>
+          <t>Öland- Floraväktarna</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Thomas Gunnarsson, Jan-Olof Petersson, Ulla-Britt Andersson, Göran Wendt, Elna Hultqvist</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Thomas Gunnarsson, Ulla-Britt Andersson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
